--- a/Data/processed/segunda_aplicacion/pruebas_pre_post.xlsx
+++ b/Data/processed/segunda_aplicacion/pruebas_pre_post.xlsx
@@ -159,16 +159,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7757936507936508</v>
+        <v>0.7786759045419553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8557539682539682</v>
+        <v>0.8575827559661278</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9869600695284414E-16</v>
+        <v>8.347499278340817E-17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3744580760059447</v>
+        <v>0.3726914801002811</v>
       </c>
     </row>
     <row r="3">
@@ -176,16 +176,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.794047619047619</v>
+        <v>0.7956120092378753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8541666666666666</v>
+        <v>0.8556581986143187</v>
       </c>
       <c r="D3" t="n">
-        <v>4.5867003107864075E-6</v>
+        <v>3.342099813019613E-6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2383652692782889</v>
+        <v>0.23958370326385878</v>
       </c>
     </row>
     <row r="4">
@@ -193,16 +193,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.85</v>
+        <v>0.8527713625866051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8702380952380953</v>
+        <v>0.8729792147806005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08522562596503108</v>
+        <v>0.07876065929258437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0885275182408415</v>
+        <v>0.0892848351375976</v>
       </c>
     </row>
     <row r="5">
@@ -210,16 +210,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6876443418013857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8441108545034642</v>
       </c>
       <c r="D5" t="n">
-        <v>1.6605873047759435E-24</v>
+        <v>8.705215480365365E-25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6457731720144344</v>
+        <v>0.6375192185207774</v>
       </c>
     </row>
     <row r="6">
@@ -227,16 +227,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8862117837618951</v>
+        <v>0.8857602574416734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9131403118040089</v>
+        <v>0.9137168141592921</v>
       </c>
       <c r="D6" t="n">
-        <v>7.338673195551875E-4</v>
+        <v>4.8372604695687575E-4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1549758088978181</v>
+        <v>0.16097058882237203</v>
       </c>
     </row>
     <row r="7">
@@ -244,16 +244,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8277654046028211</v>
+        <v>0.827433628318584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9042316258351893</v>
+        <v>0.9048672566371682</v>
       </c>
       <c r="D7" t="n">
-        <v>1.135237003957226E-6</v>
+        <v>6.866394418529603E-7</v>
       </c>
       <c r="E7" t="n">
-        <v>0.31521161831308764</v>
+        <v>0.31993450162447773</v>
       </c>
     </row>
     <row r="8">
@@ -261,16 +261,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9086859688195991</v>
+        <v>0.9081858407079646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.928173719376392</v>
+        <v>0.9286504424778761</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04530878687137976</v>
+        <v>0.035384732636796486</v>
       </c>
       <c r="E8" t="n">
-        <v>0.10474840094380712</v>
+        <v>0.11000972191031669</v>
       </c>
     </row>
     <row r="9">
@@ -278,16 +278,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9075723830734966</v>
+        <v>0.9070796460176991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9047884187082406</v>
+        <v>0.9054203539823009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6091097510784944</v>
+        <v>0.7008752987907308</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.014226102402668736</v>
+        <v>-0.008482096582547942</v>
       </c>
     </row>
     <row r="10">
@@ -295,16 +295,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5623563218390805</v>
+        <v>0.6760992108229988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6711366538952745</v>
+        <v>0.7880496054114995</v>
       </c>
       <c r="D10" t="n">
-        <v>7.867965089630095E-45</v>
+        <v>1.7440388326133087E-48</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7746050264023233</v>
+        <v>0.6522442780283894</v>
       </c>
     </row>
     <row r="11">
@@ -312,16 +312,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8003831417624521</v>
+        <v>0.6196918451709883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4268199233716475</v>
+        <v>0.8786170612551673</v>
       </c>
       <c r="D11" t="n">
-        <v>1.203650763667937E-98</v>
+        <v>1.2518850562641494E-119</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.5697618473655104</v>
+        <v>1.2117739177664661</v>
       </c>
     </row>
     <row r="12">
@@ -329,16 +329,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13831417624521072</v>
+        <v>0.6242014280345735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.48735632183908045</v>
+        <v>0.7049981210071402</v>
       </c>
       <c r="D12" t="n">
-        <v>4.368469065274961E-90</v>
+        <v>1.7080538863651326E-20</v>
       </c>
       <c r="E12" t="n">
-        <v>1.4625995026376768</v>
+        <v>0.30705803510630725</v>
       </c>
     </row>
     <row r="13">
@@ -346,16 +346,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7235632183908046</v>
+        <v>0.6561443066516347</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7775862068965518</v>
+        <v>0.7085682074408117</v>
       </c>
       <c r="D13" t="n">
-        <v>1.026631231387179E-4</v>
+        <v>2.805098445851886E-4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17666023726021254</v>
+        <v>0.16157371674587198</v>
       </c>
     </row>
     <row r="14">
@@ -363,16 +363,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.11781609195402298</v>
+        <v>0.8585118376550169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.871264367816092</v>
+        <v>0.8562570462232244</v>
       </c>
       <c r="D14" t="n">
-        <v>3.408869018559608E-139</v>
+        <v>0.7832327438308619</v>
       </c>
       <c r="E14" t="n">
-        <v>2.9084977814766764</v>
+        <v>-0.008109439634387948</v>
       </c>
     </row>
     <row r="15">
@@ -380,16 +380,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.642692750287687</v>
+        <v>0.6428470654627539</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6711737629459148</v>
+        <v>0.67127539503386</v>
       </c>
       <c r="D15" t="n">
-        <v>3.21569364128715E-4</v>
+        <v>2.549142666612196E-4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.13110398507930862</v>
+        <v>0.1311862740583418</v>
       </c>
     </row>
     <row r="16">
@@ -397,16 +397,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5854406130268199</v>
+        <v>0.5843667794062383</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6885057471264368</v>
+        <v>0.6882750845546787</v>
       </c>
       <c r="D16" t="n">
-        <v>3.8197275978925657E-17</v>
+        <v>8.910910789574209E-18</v>
       </c>
       <c r="E16" t="n">
-        <v>0.33014563578710765</v>
+        <v>0.33305307747407764</v>
       </c>
     </row>
     <row r="17">
@@ -414,16 +414,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8281285878300804</v>
+        <v>0.827027027027027</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.8908783783783784</v>
       </c>
       <c r="D17" t="n">
-        <v>2.2676283930772134E-10</v>
+        <v>1.693345899822942E-10</v>
       </c>
       <c r="E17" t="n">
-        <v>0.23111833006602903</v>
+        <v>0.22972092542081626</v>
       </c>
     </row>
     <row r="18">
@@ -431,16 +431,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8514942528735632</v>
+        <v>0.8505073280721533</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8674712643678161</v>
+        <v>0.8680947012401353</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07531814090663316</v>
+        <v>0.049374751406820225</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06155013581256815</v>
+        <v>0.06768063364474437</v>
       </c>
     </row>
     <row r="19">
@@ -448,16 +448,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8218125960061444</v>
+        <v>0.8233295583238958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6693548387096774</v>
+        <v>0.6704416761041903</v>
       </c>
       <c r="D19" t="n">
-        <v>7.245978604131285E-58</v>
+        <v>4.462545309898285E-59</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6433815906182888</v>
+        <v>-0.6467681798464656</v>
       </c>
     </row>
     <row r="20">
@@ -465,16 +465,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8106758832565284</v>
+        <v>0.8104945262363156</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7707373271889401</v>
+        <v>0.7682144205360514</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0017123739342107833</v>
+        <v>0.0010716183295092444</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.14103852530601807</v>
+        <v>-0.14910267623888818</v>
       </c>
     </row>
     <row r="21">
@@ -482,16 +482,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6132872503840245</v>
+        <v>0.6138165345413363</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8498463901689708</v>
+        <v>0.850887127217818</v>
       </c>
       <c r="D21" t="n">
-        <v>1.3264260406329772E-71</v>
+        <v>4.686566792984773E-74</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9354614672071686</v>
+        <v>0.9406075282681434</v>
       </c>
     </row>
   </sheetData>
